--- a/tests/data/indicator_test_output_240515.xlsx
+++ b/tests/data/indicator_test_output_240515.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmanko/code/who_l3_smart_tools/tests/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmanko/code/who_l3_smart_tools/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F606FD-E9B1-EE42-8479-D634CC62BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1799AD-F0AA-5C49-BD43-5888665368EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIV.IND.2" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Patient ID</t>
   </si>
@@ -223,10 +223,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,6 +543,7 @@
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="96" x14ac:dyDescent="0.2">
@@ -691,14 +692,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -1923,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1937,11 +1940,10 @@
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" customWidth="1"/>
+    <col min="8" max="8" width="74" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,30 +1968,27 @@
       <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2008,20 +2007,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <f>IF(F2=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2040,20 +2035,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H9" si="1">IF(F3=1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2072,20 +2063,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2104,20 +2091,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2136,20 +2119,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2168,20 +2147,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2200,20 +2175,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2232,18 +2203,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
